--- a/results/scores_NOAA_Weather.xlsx
+++ b/results/scores_NOAA_Weather.xlsx
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5816</v>
+        <v>0.5769</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6049</v>
+        <v>0.5987</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6404</v>
+        <v>0.5217000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5881999999999999</v>
+        <v>0.5687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6105</v>
+        <v>0.5686</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6393</v>
+        <v>0.5082</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0571</v>
+        <v>0.043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0575</v>
+        <v>0.0755</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>0.7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.72</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         <v>0.7</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7079</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7265</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="7">
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.0354</v>
+        <v>0.0212</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0443</v>
+        <v>0.028</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0351</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="8">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24.4958</v>
+        <v>11.0302</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9475</v>
+        <v>0.4797</v>
       </c>
       <c r="F8" t="n">
-        <v>4.3895</v>
+        <v>1.2223</v>
       </c>
     </row>
     <row r="9">
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4981</v>
+        <v>0.6348</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1874</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2573</v>
+        <v>0.0833</v>
       </c>
     </row>
   </sheetData>
